--- a/results/Livro1.xlsx
+++ b/results/Livro1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Gdrive\Documentos\UA\SignalProcessing\SPPA_final_project_1920\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9FE5A9-44FB-408B-B0E4-735410249735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF69369B-35F8-463E-9BE0-F6A9FFF222D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C1F8826-FD75-42C7-8DBF-1E45157CE14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0C1F8826-FD75-42C7-8DBF-1E45157CE14B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>k</t>
   </si>
@@ -62,13 +63,28 @@
   <si>
     <t>ns = 100000000</t>
   </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>analy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -79,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,11 +121,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E189FBCD-E012-4532-BE1F-7A023530E8D9}">
   <dimension ref="A2:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +648,7 @@
         <v>3.0435916028309502</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:F10" si="0">ABS(C5-B5)/B5*1000</f>
+        <f t="shared" ref="D5:D10" si="0">ABS(C5-B5)/B5*1000</f>
         <v>14.530534276983401</v>
       </c>
       <c r="E5" s="1">
@@ -638,7 +665,7 @@
         <v>1.0063529427767</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:K10" si="2">ABS(H5-G5)/G5*1000</f>
+        <f t="shared" ref="I5:I10" si="2">ABS(H5-G5)/G5*1000</f>
         <v>6.3529427766999547</v>
       </c>
       <c r="J5" s="1">
@@ -752,7 +779,7 @@
         <v>-2.9998759632976602</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U5:U10" si="7">ABS(T6-Q6)/S6*1000</f>
+        <f t="shared" ref="U6:U10" si="7">ABS(T6-Q6)/S6*1000</f>
         <v>-0.3620970750717547</v>
       </c>
     </row>
@@ -1051,4 +1078,955 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95189FCF-298B-4675-9FF4-A28D2A478C9A}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0.259434869318592</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.25925925925926002</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3-A3)/B3*100</f>
+        <v>6.7735308599476449E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.22222222222514</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.2222222222222201</v>
+      </c>
+      <c r="G3" s="4">
+        <f>ABS(E3-F3)/F3*100</f>
+        <v>2.3889980902615913E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>-0.25790662767033101</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-0.25925925925925902</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C43" si="0">ABS(B4-A4)/B4*100</f>
+        <v>-0.5217293271579474</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-1.0000000000018801</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G43" si="1">ABS(E4-F4)/F4*100</f>
+        <v>-1.8800516699002401E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>-6.1632446097756997E-2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-6.1728395061729002E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-0.15543732163464635</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-0.88888888889169704</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-0.88888888888889095</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.1568497815825863E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4.3897078366002998E-2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.5267489711933999E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.0273632460112223</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.48148148148262299</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.48148148148148301</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3676445419613762E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>-3.3814906004817999E-2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-3.7037037037037E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-8.6997537869913124</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.33333333333535697</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.33333333333333498</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0659810507956691E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>-2.5467170327473001E-2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-2.4691358024690999E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-3.1420398262671521</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-0.18518518518652499</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.18518518518518701</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.2251205018857686E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1.8774694684907001E-2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.1947873799725001E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>14.457797341889943</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-4.5267489711899998E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-4.5267489711932E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.0695722003742396E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>-7.3897114732459999E-3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-9.6021947873799994E-3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-23.041433371481158</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.7037037036522003E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3.7037037037035002E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3850982860664424E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>-4.4957669630719998E-3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-1.676573693035E-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-168.15206404280298</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.2921810701697002E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.2921810699587002E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4091240127575705E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>-4.3427431536309999E-3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-8.12884214805E-4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-434.238834330516</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.4691358024556E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.4691358024693001E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5485616101687757E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4.0096559570849998E-3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.286236854138E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>75.382351562904688</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1.7832647461575001E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.7832647462275E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.9253794926073799E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>3.9570002021409997E-3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.3717421124829999E-3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>188.46531473604801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.8587105633879999E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.8587105624110002E-3</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4244656079693949E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>-3.691859453223E-3</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-8.4675439042000006E-5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-4260.0121770750957</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.6765736913570001E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.676573693035E-3</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0008507093050553E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>3.303061231906E-3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9.1449474165499996E-4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>261.18974570901412</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1.371742111335E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1.3717421124859999E-3</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.3907890401234846E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>3.2316413082190002E-3</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3.5563684397699999E-4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>808.6913695668718</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1.219326319869E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.2193263222050001E-3</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.9158120819773806E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>-3.1629151910849999E-3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-5.0805263424999999E-5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-6125.5659706482465</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-9.1449474248799997E-4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-9.1449474165100002E-4</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.1525945319210978E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>-3.0342020932860002E-3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-3.3870175617E-5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-8858.3299702853728</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.6046842535000001E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.6046842452599996E-4</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2475994571173682E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>-2.9126389059870002E-3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-1.3171734962E-5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-22012.79618356931</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-2.5402631824800003E-4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-2.5402631712299998E-4</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.4286751957676241E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>2.484673902738E-3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.2095321963999997E-5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3901.3866168187342</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-6.2095319804999995E-5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-6.2095321958999995E-5</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.4688603470770836E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2.4118349334150001E-3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3.0106822770000001E-5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>7910.9248054506679</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5.0805262249000001E-5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5.0805263424999999E-5</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3147207967393824E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>2.3903205123469999E-3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3.136127373E-6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>76118.859378164663</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.5160232835E-5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4.5160234143E-5</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8963534510124443E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>-1.89387329221E-3</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-2.299826736E-6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-82248.52054567993</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3.3870174361000003E-5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3.3870175613999999E-5</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6994198384112373E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>1.838678676654E-3</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.8816764179999999E-6</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>97614.923727869143</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-2.4461791774E-5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-2.4461793478999999E-5</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>-6.9700531170902451E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>-1.76298107565E-3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>-1.1150675069999999E-6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-158005.32228610624</v>
+      </c>
+      <c r="E26" s="5">
+        <v>9.4083820439999992E-6</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9.4083820929999997E-6</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2081218652717563E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>-1.7477318785919999E-3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>-1.16152892E-7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-1504582.1895678672</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.2998269920000001E-6</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.299826541E-6</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9610174593937469E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>-1.516046455908E-3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>-6.9691588000000001E-8</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-2175265.0611433908</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-1.8816758069999999E-6</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-1.8816763599999999E-6</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.9388688286135498E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>1.388178683488E-3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1.2544509470000001E-6</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>110560.26031610146</v>
+      </c>
+      <c r="E29" s="5">
+        <v>-1.6726012450000001E-6</v>
+      </c>
+      <c r="F29" s="5">
+        <v>-1.6726008569999999E-6</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.3197405317180113E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>1.211044737917E-3</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4.8784204100000005E-7</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>248145.25894376534</v>
+      </c>
+      <c r="E30" s="5">
+        <v>-1.254452225E-6</v>
+      </c>
+      <c r="F30" s="5">
+        <v>-1.2544509470000001E-6</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.0187723984214552E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>1.135746692634E-3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8.5178663000000006E-8</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1333269.9457503811</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9.0599293099999997E-7</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9.0599172500000004E-7</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3311379857557025E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>-1.0528639104599999E-3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-4.6461084999999999E-8</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-2266019.9377070079</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-3.4845813900000001E-7</v>
+      </c>
+      <c r="F32" s="5">
+        <v>-3.4845794099999998E-7</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.6821778680609694E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>-9.4794771152200005E-4</v>
+      </c>
+      <c r="B33" s="5">
+        <v>-1.8068384E-8</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-5246344.3500979384</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-8.5171762E-8</v>
+      </c>
+      <c r="F33" s="5">
+        <v>-8.5173393000000001E-8</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.914917255909303E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>-8.5904391164000002E-4</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-3.1519280000000001E-9</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-27254453.772801917</v>
+      </c>
+      <c r="E34" s="5">
+        <v>6.9690838000000006E-8</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6.9690016000000002E-8</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1795089844777043E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>7.09053647322E-4</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4.1298718999999998E-8</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1716790.1711503447</v>
+      </c>
+      <c r="E35" s="5">
+        <v>6.1936632999999999E-8</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6.1937179999999998E-8</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>8.831528978216406E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>-6.8300912001699997E-4</v>
+      </c>
+      <c r="B36" s="5">
+        <v>-1.5274869999999999E-9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-44714461.892638043</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4.6459907999999998E-8</v>
+      </c>
+      <c r="F36" s="5">
+        <v>4.6461058E-8</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4751911590188656E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>-6.5739810185500003E-4</v>
+      </c>
+      <c r="B37" s="5">
+        <v>-1.7860900000000001E-10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-368065396.0584293</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3.3535419999999997E-8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>-3.3538356E-8</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.7541559878571654E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>6.1228954928799998E-4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4.3026720000000002E-9</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>14230349.109018765</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.288942E-8</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.2888170999999999E-8</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6910570165549374E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>6.03545854169E-4</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2.577634E-9</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>23414622.732901566</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3.0106680000000001E-9</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.0096E-9</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5486443381182314E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>-4.0599558087899999E-4</v>
+      </c>
+      <c r="B40" s="5">
+        <v>-1.8883999999999999E-11</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-2149944725.6672316</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-2.5348510000000001E-9</v>
+      </c>
+      <c r="F40" s="5">
+        <v>-2.5351449999999999E-9</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.1596969798565122E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>3.0237914277699999E-4</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1.719122E-9</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>17589061.372898493</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-1.997938E-9</v>
+      </c>
+      <c r="F41" s="5">
+        <v>-1.9969579999999999E-9</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.9074642531296869E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>-1.09309041153E-4</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4.0127999999999997E-11</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>272401019.93869621</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-1.7189259999999999E-9</v>
+      </c>
+      <c r="F42" s="5">
+        <v>-1.7184230000000001E-9</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.9271023490716135E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>-1.8838781432000001E-5</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6.7352099999999997E-10</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2797159.2501198924</v>
+      </c>
+      <c r="E43" s="5">
+        <v>7.87064E-10</v>
+      </c>
+      <c r="F43" s="5">
+        <v>7.8603599999999997E-10</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13078281401870015</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E3:G43">
+    <sortCondition descending="1" ref="G3:G43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>